--- a/biology/Médecine/Jane_Harding/Jane_Harding.xlsx
+++ b/biology/Médecine/Jane_Harding/Jane_Harding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dame Jane Elizabeth Harding (née en 1955) est une universitaire et néonatalogue néo-zélandaise, spécialiste des cas intensifs. Elle a reçu la médaille Rutherford en 2019.
 </t>
@@ -511,10 +523,12 @@
           <t>Éducation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harding a étudié à l'université d'Auckland, où elle a obtenu son diplôme en 1978, et en 1982 a obtenu un doctorat en physiologie fœtale de l'université d'Oxford[1]. Elle est retournée en Nouvelle-Zélande pour suivre une formation en pédiatrie, puis a effectué un stage postdoctoral à l'université de Californie à San Francisco[1]. Par la suite, elle a travaillé à la faculté de médecine de l'université d'Auckland à partir de 1989, devenant professeur de néonatologie en 1997[1]. Elle est directrice adjointe du Liggins Institute de l'université d'Auckland[1].
-Harding est membre de l'organisation caritative néo-zélandaise Global Women [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harding a étudié à l'université d'Auckland, où elle a obtenu son diplôme en 1978, et en 1982 a obtenu un doctorat en physiologie fœtale de l'université d'Oxford. Elle est retournée en Nouvelle-Zélande pour suivre une formation en pédiatrie, puis a effectué un stage postdoctoral à l'université de Californie à San Francisco. Par la suite, elle a travaillé à la faculté de médecine de l'université d'Auckland à partir de 1989, devenant professeur de néonatologie en 1997. Elle est directrice adjointe du Liggins Institute de l'université d'Auckland.
+Harding est membre de l'organisation caritative néo-zélandaise Global Women .
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harding a été élue membre de la Société royale de Nouvelle-Zélande en 2001[3] ; elle est également fellow du Royal Australasian College of Physicians (en). En 2002, lors de l'anniversaire de la reine et des distinctions honorifiques du jubilé d'or (en), elle a été nommée officier de l'ordre du Mérite de Nouvelle-Zélande, pour services rendus à la pédiatrie[4]. Elle a reçu la médaille Beaven du Health Research Council of New Zealand (en) en 2016[5]. En 2017, Harding a été sélectionnée comme l'une des « 150 femmes en 150 mots (en) » de la Société royale de Nouvelle-Zélande, célébrant les contributions des femmes au savoir en Nouvelle-Zélande[6].
-En 2019, Harding a reçu la médaille Rutherford, la plus haute distinction scientifique de Nouvelle-Zélande, de la Société royale de Nouvelle-Zélande[7],[8]. Toujours en 2019, Harding a reçu le Supreme Award aux New Zealand Women of Influence Awards (en)[9] ainsi que le Innovation, Science and Health award.
-Lors des honneurs de l'anniversaire de la reine 2020 (en), Harding a été promue dame compagnon de l'ordre du Mérite de Nouvelle-Zélande, pour ses services en néonatalogie et périnatologie[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harding a été élue membre de la Société royale de Nouvelle-Zélande en 2001 ; elle est également fellow du Royal Australasian College of Physicians (en). En 2002, lors de l'anniversaire de la reine et des distinctions honorifiques du jubilé d'or (en), elle a été nommée officier de l'ordre du Mérite de Nouvelle-Zélande, pour services rendus à la pédiatrie. Elle a reçu la médaille Beaven du Health Research Council of New Zealand (en) en 2016. En 2017, Harding a été sélectionnée comme l'une des « 150 femmes en 150 mots (en) » de la Société royale de Nouvelle-Zélande, célébrant les contributions des femmes au savoir en Nouvelle-Zélande.
+En 2019, Harding a reçu la médaille Rutherford, la plus haute distinction scientifique de Nouvelle-Zélande, de la Société royale de Nouvelle-Zélande,. Toujours en 2019, Harding a reçu le Supreme Award aux New Zealand Women of Influence Awards (en) ainsi que le Innovation, Science and Health award.
+Lors des honneurs de l'anniversaire de la reine 2020 (en), Harding a été promue dame compagnon de l'ordre du Mérite de Nouvelle-Zélande, pour ses services en néonatalogie et périnatologie.
 </t>
         </is>
       </c>
